--- a/data-raw/dasilva.soybean.uniformity.xlsx
+++ b/data-raw/dasilva.soybean.uniformity.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848FB55-85B1-4E75-A30C-CD0EBFD0DA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="6840" windowHeight="8988"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,14 +465,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -470,9 +482,9 @@
       <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>48</v>
       </c>
@@ -623,7 +635,7 @@
         <v>12543</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>47</v>
       </c>
@@ -700,7 +712,7 @@
         <v>7868</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>46</v>
       </c>
@@ -777,7 +789,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>45</v>
       </c>
@@ -854,7 +866,7 @@
         <v>7371</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
@@ -931,7 +943,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>43</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>42</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>7303</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>7571</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>39</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>6968</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>38</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>37</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>35</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>6888</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>33</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>31</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>11296</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -2009,7 +2021,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>29</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>27</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>8185</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>9591</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>13869</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>13206</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>21</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>11561</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>19</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>8078</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>17</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>16</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>13</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>12</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>5881</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -3549,7 +3561,7 @@
         <v>9740</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>9</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>7196</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>8889</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>9565</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>7741</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>19738</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1</v>
       </c>
